--- a/biology/Zoologie/Buriolestes/Buriolestes.xlsx
+++ b/biology/Zoologie/Buriolestes/Buriolestes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buriolestes schultzi
-Buriolestes est un genre éteint de dinosaures, un sauropodomorphe basal. L'holotype a été découvert dans la formation de Santa Maria au Brésil, datée de 233 Ma (millions d'années), du Carnien (Trias supérieur)[1]. Il a été trouvé aux côtés de restes d'un Lagerpetidae du genre Ixalerpeton[2].
-Une seule espèce est rattachée au genre, Buriolestes schultzi, décrite par Sérgio Cabreira (d) et son équipe en 2016[2].
+Buriolestes est un genre éteint de dinosaures, un sauropodomorphe basal. L'holotype a été découvert dans la formation de Santa Maria au Brésil, datée de 233 Ma (millions d'années), du Carnien (Trias supérieur). Il a été trouvé aux côtés de restes d'un Lagerpetidae du genre Ixalerpeton.
+Une seule espèce est rattachée au genre, Buriolestes schultzi, décrite par Sérgio Cabreira (d) et son équipe en 2016.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'analyse phylogénétique menée en 2016 par Sergio Cabreira et son équipe classe Buriolestes comme un sauropodomorphe basal. Le cladogramme suivant est issu de cette étude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'analyse phylogénétique menée en 2016 par Sergio Cabreira et son équipe classe Buriolestes comme un sauropodomorphe basal. Le cladogramme suivant est issu de cette étude.
 Dinosauria
 †Ornithischia
 Saurischia
